--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Saudi Arabia_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Saudi Arabia_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G363"/>
+  <dimension ref="A1:G365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9526,6 +9526,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="364">
+      <c r="A364" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>ECONOMICS:SAM2</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>2260381000000</v>
+      </c>
+      <c r="D364" t="n">
+        <v>2260381000000</v>
+      </c>
+      <c r="E364" t="n">
+        <v>2260381000000</v>
+      </c>
+      <c r="F364" t="n">
+        <v>2260381000000</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>ECONOMICS:SAM2</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>2258623000000</v>
+      </c>
+      <c r="D365" t="n">
+        <v>2258623000000</v>
+      </c>
+      <c r="E365" t="n">
+        <v>2258623000000</v>
+      </c>
+      <c r="F365" t="n">
+        <v>2258623000000</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Saudi Arabia_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Saudi Arabia_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G365"/>
+  <dimension ref="A1:G366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9576,6 +9576,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="366">
+      <c r="A366" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>ECONOMICS:SAM2</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>2266829000000</v>
+      </c>
+      <c r="D366" t="n">
+        <v>2266829000000</v>
+      </c>
+      <c r="E366" t="n">
+        <v>2266829000000</v>
+      </c>
+      <c r="F366" t="n">
+        <v>2266829000000</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Saudi Arabia_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Saudi Arabia_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G366"/>
+  <dimension ref="A1:G367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>34060.41666666666</v>
+        <v>34060.45833333334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>34425.41666666666</v>
+        <v>34425.45833333334</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>34790.41666666666</v>
+        <v>34790.45833333334</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>34973.41666666666</v>
+        <v>34973.45833333334</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>35156.41666666666</v>
+        <v>35156.45833333334</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.45833333334</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -9598,6 +9598,31 @@
         <v>2266829000000</v>
       </c>
       <c r="G366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>ECONOMICS:SAM2</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>2317287000000</v>
+      </c>
+      <c r="D367" t="n">
+        <v>2317287000000</v>
+      </c>
+      <c r="E367" t="n">
+        <v>2317287000000</v>
+      </c>
+      <c r="F367" t="n">
+        <v>2317287000000</v>
+      </c>
+      <c r="G367" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Saudi Arabia_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Saudi Arabia_M2.xlsx
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>34060.45833333334</v>
+        <v>34060.41666666666</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>34425.45833333334</v>
+        <v>34425.41666666666</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>34790.45833333334</v>
+        <v>34790.41666666666</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>34973.45833333334</v>
+        <v>34973.41666666666</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Saudi Arabia_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Saudi Arabia_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G367"/>
+  <dimension ref="A1:G368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9626,6 +9626,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="368">
+      <c r="A368" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>ECONOMICS:SAM2</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>2313006000000</v>
+      </c>
+      <c r="D368" t="n">
+        <v>2313006000000</v>
+      </c>
+      <c r="E368" t="n">
+        <v>2313006000000</v>
+      </c>
+      <c r="F368" t="n">
+        <v>2313006000000</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Saudi Arabia_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Saudi Arabia_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G368"/>
+  <dimension ref="A1:G370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9651,6 +9651,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="369">
+      <c r="A369" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>ECONOMICS:SAM2</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>2337421000000</v>
+      </c>
+      <c r="D369" t="n">
+        <v>2337421000000</v>
+      </c>
+      <c r="E369" t="n">
+        <v>2337421000000</v>
+      </c>
+      <c r="F369" t="n">
+        <v>2337421000000</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>ECONOMICS:SAM2</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>2349684000000</v>
+      </c>
+      <c r="D370" t="n">
+        <v>2349684000000</v>
+      </c>
+      <c r="E370" t="n">
+        <v>2349684000000</v>
+      </c>
+      <c r="F370" t="n">
+        <v>2349684000000</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Saudi Arabia_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Saudi Arabia_M2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G370"/>
+  <dimension ref="A1:G371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8917,6 +8917,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="371" spans="1:7">
+      <c r="A371" s="2">
+        <v>45200.45833333334</v>
+      </c>
+      <c r="B371" t="s">
+        <v>7</v>
+      </c>
+      <c r="C371">
+        <v>2361996000000</v>
+      </c>
+      <c r="D371">
+        <v>2361996000000</v>
+      </c>
+      <c r="E371">
+        <v>2361996000000</v>
+      </c>
+      <c r="F371">
+        <v>2361996000000</v>
+      </c>
+      <c r="G371">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
